--- a/fastqFiles/fastq_fullrun_hbrown_01.13.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.13.20.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE6128-73EB-2C4D-938D-87DFFD7AA5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32440" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,243 +27,227 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="69">
   <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequencerModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowcellType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tapestationConc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volumePooled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readsObtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastqFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.19.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighOutput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fullRNASeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-1_GTAC_1_SIC_Index2_08_TGAGGTT_AAGCACGT_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-2_GTAC_2_SIC_Index2_08_GCTTAGA_AAGCACGT_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-3_GTAC_3_SIC_Index2_08_ATGACAG_AAGCACGT_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-4_GTAC_4_SIC_Index2_08_CACCTCC_AAGCACGT_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-5_GTAC_5_SIC_Index2_08_ATCGAGC_AAGCACGT_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-6_GTAC_6_SIC_Index2_08_TACTCTA_AAGCACGT_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small/Brent_5b-7_GTAC_7_SIC_Index2_07_AGACTGA_GAGTTGGT_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-8_GTAC_8_SIC_Index2_08_CTTGGAA_AAGCACGT_S9_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-9_GTAC_9_SIC_Index2_08_CCGATTA_AAGCACGT_S10_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-10_GTAC_10_SIC_Index2_08_GGCAGCG_AAGCACGT_S11_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-11_GTAC_11_SIC_Index2_08_CCATCAT_AAGCACGT_S12_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-12_GTAC_12_SIC_Index2_08_TAACAAG_AAGCACGT_S13_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-13_GTAC_13_SIC_Index2_08_GAGGCGT_AAGCACGT_S14_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-14_GTAC_14_SIC_Index2_08_TTTAACT_AAGCACGT_S15_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-15_GTAC_15_SIC_Index2_08_GGTCCTC_AAGCACGT_S16_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-16_GTAC_16_SIC_Index2_08_CGGTGGC_AAGCACGT_S17_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-17_GTAC_17_SIC_Index2_08_ACTGTCG_AAGCACGT_S18_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-18_GTAC_18_SIC_Index2_08_GTATTTG_AAGCACGT_S19_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-19_GTAC_19_SIC_Index2_08_GAGTACG_AAGCACGT_S20_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-20_GTAC_20_SIC_Index2_08_ACAGATA_AAGCACGT_S21_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-21_GTAC_21_SIC_Index2_08_CTCAATG_AAGCACGT_S22_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-22_GTAC_22_SIC_Index2_08_AAATGCA_AAGCACGT_S23_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-23_GTAC_23_SIC_Index2_08_ACGCGGG_AAGCACGT_S24_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-24_GTAC_24_SIC_Index2_08_GGAGTCC_AAGCACGT_S25_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-25_GTAC_25_SIC_Index2_08_CGTCGCT_AAGCACGT_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5a-26_GTAC_26_SIC_Index2_08_TCAACTG_AAGCACGT_S27_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.06.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-1_GTAC_1_SIC_Index2_07_TGAGGTT_GAGTTGGT_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-2_GTAC_2_SIC_Index2_07_GCTTAGA_GAGTTGGT_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-3_GTAC_3_SIC_Index2_07_ATGACAG_GAGTTGGT_S30_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-4_GTAC_4_SIC_Index2_07_CACCTCC_GAGTTGGT_S31_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-5_GTAC_5_SIC_Index2_07_ATCGAGC_GAGTTGGT_S32_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-6_GTAC_6_SIC_Index2_07_TACTCTA_GAGTTGGT_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-8_GTAC_8_SIC_Index2_07_CTTGGAA_GAGTTGGT_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-9_GTAC_9_SIC_Index2_07_CCGATTA_GAGTTGGT_S36_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-10_GTAC_10_SIC_Index2_07_GGCAGCG_GAGTTGGT_S37_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-11_GTAC_11_SIC_Index2_07_CCATCAT_GAGTTGGT_S38_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-12_GTAC_12_SIC_Index2_07_TAACAAG_GAGTTGGT_S39_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small/Brent_5b-13_GTAC_13_SIC_Index2_07_GAGGCGT_GAGTTGGT_S40_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-14_GTAC_14_SIC_Index2_07_TTTAACT_GAGTTGGT_S41_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-15_GTAC_15_SIC_Index2_07_GGTCCTC_GAGTTGGT_S42_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-16_GTAC_16_SIC_Index2_07_CGGTGGC_GAGTTGGT_S43_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-17_GTAC_17_SIC_Index2_07_ACTGTCG_GAGTTGGT_S44_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-18_GTAC_18_SIC_Index2_07_GTATTTG_GAGTTGGT_S45_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-19_GTAC_19_SIC_Index2_07_GAGTACG_GAGTTGGT_S46_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-20_GTAC_20_SIC_Index2_07_ACAGATA_GAGTTGGT_S47_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small/Brent_5b-21_GTAC_21_SIC_Index2_07_CTCAATG_GAGTTGGT_S48_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small/Brent_5b-22_GTAC_22_SIC_Index2_07_AAATGCA_GAGTTGGT_S49_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small/Brent_5b-23_GTAC_23_SIC_Index2_07_ACGCGGG_GAGTTGGT_S50_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_small/Brent_5b-24_GTAC_24_SIC_Index2_07_GGAGTCC_GAGTTGGT_S51_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-25_GTAC_25_SIC_Index2_07_CGTCGCT_GAGTTGGT_S52_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_large/Brent_5b-26_GTAC_26_SIC_Index2_07_TCAACTG_GAGTTGGT_S53_R1_001.fastq.gz</t>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>runNumber</t>
+  </si>
+  <si>
+    <t>laneNumber</t>
+  </si>
+  <si>
+    <t>sequencerModel</t>
+  </si>
+  <si>
+    <t>flowcellType</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>tapestationConc</t>
+  </si>
+  <si>
+    <t>volumePooled</t>
+  </si>
+  <si>
+    <t>readsObtained</t>
+  </si>
+  <si>
+    <t>fastqFileName</t>
+  </si>
+  <si>
+    <t>12.19.19</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>NextSeq</t>
+  </si>
+  <si>
+    <t>HighOutput</t>
+  </si>
+  <si>
+    <t>fullRNASeq</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-1_GTAC_1_SIC_Index2_08_TGAGGTT_AAGCACGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-2_GTAC_2_SIC_Index2_08_GCTTAGA_AAGCACGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-3_GTAC_3_SIC_Index2_08_ATGACAG_AAGCACGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-4_GTAC_4_SIC_Index2_08_CACCTCC_AAGCACGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-5_GTAC_5_SIC_Index2_08_ATCGAGC_AAGCACGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-6_GTAC_6_SIC_Index2_08_TACTCTA_AAGCACGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small/Brent_5b-7_GTAC_7_SIC_Index2_07_AGACTGA_GAGTTGGT_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-8_GTAC_8_SIC_Index2_08_CTTGGAA_AAGCACGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-9_GTAC_9_SIC_Index2_08_CCGATTA_AAGCACGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-10_GTAC_10_SIC_Index2_08_GGCAGCG_AAGCACGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-11_GTAC_11_SIC_Index2_08_CCATCAT_AAGCACGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-12_GTAC_12_SIC_Index2_08_TAACAAG_AAGCACGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-13_GTAC_13_SIC_Index2_08_GAGGCGT_AAGCACGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-14_GTAC_14_SIC_Index2_08_TTTAACT_AAGCACGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-15_GTAC_15_SIC_Index2_08_GGTCCTC_AAGCACGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-16_GTAC_16_SIC_Index2_08_CGGTGGC_AAGCACGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-17_GTAC_17_SIC_Index2_08_ACTGTCG_AAGCACGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-18_GTAC_18_SIC_Index2_08_GTATTTG_AAGCACGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-19_GTAC_19_SIC_Index2_08_GAGTACG_AAGCACGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-20_GTAC_20_SIC_Index2_08_ACAGATA_AAGCACGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-21_GTAC_21_SIC_Index2_08_CTCAATG_AAGCACGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-22_GTAC_22_SIC_Index2_08_AAATGCA_AAGCACGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-23_GTAC_23_SIC_Index2_08_ACGCGGG_AAGCACGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-24_GTAC_24_SIC_Index2_08_GGAGTCC_AAGCACGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-25_GTAC_25_SIC_Index2_08_CGTCGCT_AAGCACGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5a-26_GTAC_26_SIC_Index2_08_TCAACTG_AAGCACGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>01.06.20</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-1_GTAC_1_SIC_Index2_07_TGAGGTT_GAGTTGGT_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-2_GTAC_2_SIC_Index2_07_GCTTAGA_GAGTTGGT_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-3_GTAC_3_SIC_Index2_07_ATGACAG_GAGTTGGT_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-4_GTAC_4_SIC_Index2_07_CACCTCC_GAGTTGGT_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-5_GTAC_5_SIC_Index2_07_ATCGAGC_GAGTTGGT_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-6_GTAC_6_SIC_Index2_07_TACTCTA_GAGTTGGT_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-8_GTAC_8_SIC_Index2_07_CTTGGAA_GAGTTGGT_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-9_GTAC_9_SIC_Index2_07_CCGATTA_GAGTTGGT_S36_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-10_GTAC_10_SIC_Index2_07_GGCAGCG_GAGTTGGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-11_GTAC_11_SIC_Index2_07_CCATCAT_GAGTTGGT_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-12_GTAC_12_SIC_Index2_07_TAACAAG_GAGTTGGT_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small/Brent_5b-13_GTAC_13_SIC_Index2_07_GAGGCGT_GAGTTGGT_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-14_GTAC_14_SIC_Index2_07_TTTAACT_GAGTTGGT_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-15_GTAC_15_SIC_Index2_07_GGTCCTC_GAGTTGGT_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-16_GTAC_16_SIC_Index2_07_CGGTGGC_GAGTTGGT_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-17_GTAC_17_SIC_Index2_07_ACTGTCG_GAGTTGGT_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-18_GTAC_18_SIC_Index2_07_GTATTTG_GAGTTGGT_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-19_GTAC_19_SIC_Index2_07_GAGTACG_GAGTTGGT_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-20_GTAC_20_SIC_Index2_07_ACAGATA_GAGTTGGT_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small/Brent_5b-21_GTAC_21_SIC_Index2_07_CTCAATG_GAGTTGGT_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small/Brent_5b-22_GTAC_22_SIC_Index2_07_AAATGCA_GAGTTGGT_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small/Brent_5b-23_GTAC_23_SIC_Index2_07_ACGCGGG_GAGTTGGT_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small/Brent_5b-24_GTAC_24_SIC_Index2_07_GGAGTCC_GAGTTGGT_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-25_GTAC_25_SIC_Index2_07_CGTCGCT_GAGTTGGT_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large/Brent_5b-26_GTAC_26_SIC_Index2_07_TCAACTG_GAGTTGGT_S53_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,7 +273,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -292,61 +281,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -405,62 +354,370 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1"/>
@@ -478,35 +735,35 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2">
+        <v>4144</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>0.967550218694314</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="J2" s="3">
+        <v>0.96755021869431401</v>
+      </c>
+      <c r="K2">
         <v>7398727</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -527,945 +784,945 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3">
+        <v>4144</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
         <v>49.2</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>0.97852754454229</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="J3" s="3">
+        <v>0.97852754454228996</v>
+      </c>
+      <c r="K3">
         <v>7738807</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="D4">
+        <v>4144</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
         <v>11.1</v>
       </c>
-      <c r="J4" s="3" t="n">
-        <v>0.835224094532233</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="J4" s="3">
+        <v>0.83522409453223301</v>
+      </c>
+      <c r="K4">
         <v>7791399</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="D5">
+        <v>4144</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
         <v>1.98</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <v>4.33650656653735</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="J5" s="3">
+        <v>4.3365065665373503</v>
+      </c>
+      <c r="K5">
         <v>7513811</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6">
+        <v>4144</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
         <v>6.96</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <v>1.46260131364289</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="J6" s="3">
+        <v>1.4626013136428899</v>
+      </c>
+      <c r="K6">
         <v>7209266</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="D7">
+        <v>4144</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
         <v>44.8</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <v>0.972869242985707</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="J7" s="3">
+        <v>0.97286924298570698</v>
+      </c>
+      <c r="K7">
         <v>7557400</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8">
+        <v>4144</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>6.56122981434692</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6.5612298143469197</v>
+      </c>
+      <c r="K8">
         <v>5700146</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9">
+        <v>4144</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9">
         <v>27.5</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="3">
         <v>1.31145358730856</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>6563888</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10">
+        <v>4144</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10">
         <v>50.3</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>0.94358979422568</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="J10" s="3">
+        <v>0.94358979422568001</v>
+      </c>
+      <c r="K10">
         <v>387536</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="D11">
+        <v>4144</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="0" t="n">
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11">
         <v>32.1</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <v>1.23383514951196</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="J11" s="3">
+        <v>1.2338351495119599</v>
+      </c>
+      <c r="K11">
         <v>7407190</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="D12">
+        <v>4144</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
         <v>12.1</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <v>0.127314124016797</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="J12" s="3">
+        <v>0.12731412401679701</v>
+      </c>
+      <c r="K12">
         <v>33180360</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>4144</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="0" t="n">
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
         <v>76.5</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="3">
         <v>1.04317308532006</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>7363681</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>4144</v>
+      </c>
+      <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="0" t="n">
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14">
         <v>132</v>
       </c>
-      <c r="J14" s="3" t="n">
-        <v>1.18276894895787</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="J14" s="3">
+        <v>1.1827689489578701</v>
+      </c>
+      <c r="K14">
         <v>7167960</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>4144</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="0" t="n">
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15">
         <v>29.1</v>
       </c>
-      <c r="J15" s="3" t="n">
-        <v>1.15470033832769</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="J15" s="3">
+        <v>1.1547003383276899</v>
+      </c>
+      <c r="K15">
         <v>8133612</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>4144</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16">
         <v>90.4</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J16" s="3">
         <v>1.19001544132297</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>7562359</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>4144</v>
+      </c>
+      <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="0" t="n">
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17">
         <v>37.6</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="3">
         <v>1.28811937240524</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>7929803</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="D18">
+        <v>4144</v>
+      </c>
+      <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="0" t="n">
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18">
         <v>125</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <v>1.16500463256449</v>
-      </c>
-      <c r="K18" s="0" t="n">
+      <c r="J18" s="3">
+        <v>1.1650046325644901</v>
+      </c>
+      <c r="K18">
         <v>6362673</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="D19">
+        <v>4144</v>
+      </c>
+      <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="0" t="n">
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19">
         <v>69.5</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="3">
         <v>1.39900158107396</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>6995825</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="D20">
+        <v>4144</v>
+      </c>
+      <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>81.4</v>
-      </c>
-      <c r="J20" s="3" t="n">
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="J20" s="3">
         <v>5</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>46957365</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="D21">
+        <v>4144</v>
+      </c>
+      <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="0" t="n">
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21">
         <v>106</v>
       </c>
-      <c r="J21" s="3" t="n">
-        <v>1.0482077044577</v>
-      </c>
-      <c r="K21" s="0" t="n">
+      <c r="J21" s="3">
+        <v>1.0482077044577001</v>
+      </c>
+      <c r="K21">
         <v>7695611</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F22" s="0" t="s">
+      <c r="D22">
+        <v>4144</v>
+      </c>
+      <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="0" t="n">
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22">
         <v>22.8</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="J22" s="3">
         <v>1.30514886642994</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>7669183</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F23" s="0" t="s">
+      <c r="D23">
+        <v>4144</v>
+      </c>
+      <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="0" t="n">
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23">
         <v>2.46</v>
       </c>
-      <c r="J23" s="3" t="n">
-        <v>11.7703151034662</v>
-      </c>
-      <c r="K23" s="0" t="n">
+      <c r="J23" s="3">
+        <v>11.770315103466199</v>
+      </c>
+      <c r="K23">
         <v>9219705</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="D24">
+        <v>4144</v>
+      </c>
+      <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="0" t="n">
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24">
         <v>48.9</v>
       </c>
-      <c r="J24" s="3" t="n">
-        <v>1.19549389511609</v>
-      </c>
-      <c r="K24" s="0" t="n">
+      <c r="J24" s="3">
+        <v>1.1954938951160901</v>
+      </c>
+      <c r="K24">
         <v>7057920</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="D25">
+        <v>4144</v>
+      </c>
+      <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>8.87406210534136</v>
-      </c>
-      <c r="K25" s="0" t="n">
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="J25" s="3">
+        <v>8.8740621053413609</v>
+      </c>
+      <c r="K25">
         <v>7028387</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F26" s="0" t="s">
+      <c r="D26">
+        <v>4144</v>
+      </c>
+      <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="0" t="n">
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26">
         <v>24.9</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="3">
         <v>1.54893348029046</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>6908612</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="D27">
+        <v>4144</v>
+      </c>
+      <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>1.1739349417719</v>
-      </c>
-      <c r="K27" s="0" t="n">
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1.1739349417719001</v>
+      </c>
+      <c r="K27">
         <v>6772391</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="D28">
+        <v>4144</v>
+      </c>
+      <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="0" t="n">
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28">
         <v>22.5</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28">
         <v>1168788</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F29" s="0" t="s">
+      <c r="D29">
+        <v>4144</v>
+      </c>
+      <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="0" t="n">
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29">
         <v>18.8</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>8305631</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -1473,35 +1730,35 @@
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="D30">
+        <v>4144</v>
+      </c>
+      <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="0" t="n">
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30">
         <v>10.5</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>0.952380952380952</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>7343496</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -1510,35 +1767,35 @@
       <c r="N30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F31" s="0" t="s">
+      <c r="D31">
+        <v>4144</v>
+      </c>
+      <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="0" t="n">
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31">
         <v>4.49</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>2.2271714922049</v>
-      </c>
-      <c r="K31" s="0" t="n">
+      <c r="J31">
+        <v>2.2271714922049002</v>
+      </c>
+      <c r="K31">
         <v>8596343</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -1547,35 +1804,35 @@
       <c r="N31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F32" s="0" t="s">
+      <c r="D32">
+        <v>4144</v>
+      </c>
+      <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="0" t="n">
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32">
         <v>18.7</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32">
         <v>7395140</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -1584,35 +1841,35 @@
       <c r="N32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F33" s="0" t="s">
+      <c r="D33">
+        <v>4144</v>
+      </c>
+      <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="0" t="n">
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33">
         <v>1.56</v>
       </c>
-      <c r="J33" s="0" t="n">
-        <v>6.41025641025641</v>
-      </c>
-      <c r="K33" s="0" t="n">
+      <c r="J33">
+        <v>6.4102564102564097</v>
+      </c>
+      <c r="K33">
         <v>7384004</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -1621,35 +1878,35 @@
       <c r="N33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="D34">
+        <v>4144</v>
+      </c>
+      <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="0" t="n">
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34">
         <v>0.91</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34">
         <v>5</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>5367610</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -1658,35 +1915,35 @@
       <c r="N34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="D35">
+        <v>4144</v>
+      </c>
+      <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="J35" s="0" t="n">
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J35">
         <v>4.01606425702811</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>7112721</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -1695,35 +1952,35 @@
       <c r="N35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>9</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="D36">
+        <v>4144</v>
+      </c>
+      <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="0" t="n">
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36">
         <v>12.8</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36">
         <v>8763810</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -1732,35 +1989,35 @@
       <c r="N36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>10</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="D37">
+        <v>4144</v>
+      </c>
+      <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="0" t="n">
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37">
         <v>4.47</v>
       </c>
-      <c r="J37" s="0" t="n">
-        <v>2.23713646532438</v>
-      </c>
-      <c r="K37" s="0" t="n">
+      <c r="J37">
+        <v>2.2371364653243799</v>
+      </c>
+      <c r="K37">
         <v>9142478</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -1769,35 +2026,35 @@
       <c r="N37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>11</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F38" s="0" t="s">
+      <c r="D38">
+        <v>4144</v>
+      </c>
+      <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="0" t="n">
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38">
         <v>20.8</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38">
         <v>9989045</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -1806,35 +2063,35 @@
       <c r="N38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F39" s="0" t="s">
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>4144</v>
+      </c>
+      <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="0" t="n">
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39">
         <v>9.6</v>
       </c>
-      <c r="J39" s="0" t="n">
-        <v>1.04166666666667</v>
-      </c>
-      <c r="K39" s="0" t="n">
+      <c r="J39">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="K39">
         <v>7652496</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -1843,35 +2100,35 @@
       <c r="N39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>4144</v>
+      </c>
+      <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="J40" s="0" t="n">
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40">
         <v>5989773</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -1880,35 +2137,35 @@
       <c r="N40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>4144</v>
+      </c>
+      <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="0" t="n">
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41">
         <v>1.51</v>
       </c>
-      <c r="J41" s="0" t="n">
-        <v>6.62251655629139</v>
-      </c>
-      <c r="K41" s="0" t="n">
+      <c r="J41">
+        <v>6.6225165562913899</v>
+      </c>
+      <c r="K41">
         <v>7263152</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -1916,35 +2173,35 @@
       </c>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F42" s="0" t="s">
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4144</v>
+      </c>
+      <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="0" t="n">
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42">
         <v>3.37</v>
       </c>
-      <c r="J42" s="0" t="n">
-        <v>2.9673590504451</v>
-      </c>
-      <c r="K42" s="0" t="n">
+      <c r="J42">
+        <v>2.9673590504451002</v>
+      </c>
+      <c r="K42">
         <v>7358865</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -1952,35 +2209,35 @@
       </c>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>4144</v>
+      </c>
+      <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="0" t="n">
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43">
         <v>1.92</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>5.20833333333333</v>
-      </c>
-      <c r="K43" s="0" t="n">
+      <c r="J43">
+        <v>5.2083333333333304</v>
+      </c>
+      <c r="K43">
         <v>7216406</v>
       </c>
       <c r="L43" s="4" t="s">
@@ -1988,35 +2245,35 @@
       </c>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>17</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="D44">
+        <v>4144</v>
+      </c>
+      <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="0" t="n">
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44">
         <v>11.5</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44">
         <v>7797092</v>
       </c>
       <c r="L44" s="4" t="s">
@@ -2024,35 +2281,35 @@
       </c>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>18</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F45" s="0" t="s">
+      <c r="D45">
+        <v>4144</v>
+      </c>
+      <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="0" t="n">
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45">
         <v>4.66</v>
       </c>
-      <c r="J45" s="0" t="n">
-        <v>2.14592274678112</v>
-      </c>
-      <c r="K45" s="0" t="n">
+      <c r="J45">
+        <v>2.1459227467811202</v>
+      </c>
+      <c r="K45">
         <v>7609591</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -2060,35 +2317,35 @@
       </c>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>19</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F46" s="0" t="s">
+      <c r="D46">
+        <v>4144</v>
+      </c>
+      <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="0" t="n">
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46">
         <v>22.5</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46">
         <v>6952677</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -2096,35 +2353,35 @@
       </c>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>20</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="D47">
+        <v>4144</v>
+      </c>
+      <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="0" t="n">
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47">
         <v>21.8</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47">
         <v>6184498</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -2132,35 +2389,35 @@
       </c>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>21</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="D48">
+        <v>4144</v>
+      </c>
+      <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="0" t="n">
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48">
         <v>0.44</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48">
         <v>5</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48">
         <v>5170599</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -2168,35 +2425,35 @@
       </c>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>22</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F49" s="0" t="s">
+      <c r="D49">
+        <v>4144</v>
+      </c>
+      <c r="F49" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="J49" s="0" t="n">
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="J49">
         <v>5</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49">
         <v>4728864</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -2204,35 +2461,35 @@
       </c>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F50" s="0" t="s">
+      <c r="D50">
+        <v>4144</v>
+      </c>
+      <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="0" t="n">
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50">
         <v>0.105</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50">
         <v>5</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50">
         <v>5547220</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -2240,35 +2497,35 @@
       </c>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>24</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F51" s="0" t="s">
+      <c r="D51">
+        <v>4144</v>
+      </c>
+      <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="J51" s="0" t="n">
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="J51">
         <v>5</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51">
         <v>5052913</v>
       </c>
       <c r="L51" s="4" t="s">
@@ -2276,35 +2533,35 @@
       </c>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>25</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F52" s="0" t="s">
+      <c r="D52">
+        <v>4144</v>
+      </c>
+      <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="0" t="n">
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52">
         <v>6.52</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52">
         <v>1.53374233128834</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52">
         <v>6800026</v>
       </c>
       <c r="L52" s="4" t="s">
@@ -2312,35 +2569,35 @@
       </c>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>26</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>4144</v>
-      </c>
-      <c r="F53" s="0" t="s">
+      <c r="D53">
+        <v>4144</v>
+      </c>
+      <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="0" t="n">
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53">
         <v>7.66</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53">
         <v>1.3</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53">
         <v>7619975</v>
       </c>
       <c r="L53" s="4" t="s">
@@ -2350,17 +2607,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G53" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G53" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"MidOutput,HighOutput"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/fastqFiles/fastq_fullrun_hbrown_01.13.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.13.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE6128-73EB-2C4D-938D-87DFFD7AA5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904CFE1-8FC4-3C48-8E1F-1A43FE2E682D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32440" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="68">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>runNumber</t>
-  </si>
-  <si>
-    <t>laneNumber</t>
   </si>
   <si>
     <t>sequencerModel</t>
@@ -672,18 +669,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1024" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,9 +714,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -733,14 +728,13 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -748,27 +742,28 @@
       <c r="D2">
         <v>4144</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.96755021869431401</v>
+      </c>
+      <c r="J2">
+        <v>7398727</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.96755021869431401</v>
-      </c>
-      <c r="K2">
-        <v>7398727</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -782,14 +777,13 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -797,34 +791,34 @@
       <c r="D3">
         <v>4144</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
         <v>49.2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="I3" s="3">
         <v>0.97852754454228996</v>
       </c>
-      <c r="K3">
+      <c r="J3">
         <v>7738807</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -832,34 +826,34 @@
       <c r="D4">
         <v>4144</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>11.1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="I4" s="3">
         <v>0.83522409453223301</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>7791399</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -867,34 +861,34 @@
       <c r="D5">
         <v>4144</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
         <v>1.98</v>
       </c>
-      <c r="J5" s="3">
+      <c r="I5" s="3">
         <v>4.3365065665373503</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <v>7513811</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -902,34 +896,34 @@
       <c r="D6">
         <v>4144</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
         <v>6.96</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I6" s="3">
         <v>1.4626013136428899</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>7209266</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -937,34 +931,34 @@
       <c r="D7">
         <v>4144</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
         <v>44.8</v>
       </c>
-      <c r="J7" s="3">
+      <c r="I7" s="3">
         <v>0.97286924298570698</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <v>7557400</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -972,34 +966,34 @@
       <c r="D8">
         <v>4144</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
         <v>0.25600000000000001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="I8" s="3">
         <v>6.5612298143469197</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <v>5700146</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1007,34 +1001,34 @@
       <c r="D9">
         <v>4144</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
         <v>27.5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="I9" s="3">
         <v>1.31145358730856</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <v>6563888</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1042,34 +1036,34 @@
       <c r="D10">
         <v>4144</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
         <v>50.3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
         <v>0.94358979422568001</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <v>387536</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1077,209 +1071,209 @@
       <c r="D11">
         <v>4144</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
         <v>32.1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="I11" s="3">
         <v>1.2338351495119599</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <v>7407190</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>4144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>12.1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.12731412401679701</v>
+      </c>
+      <c r="J12">
+        <v>33180360</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>4144</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>12.1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.12731412401679701</v>
-      </c>
-      <c r="K12">
-        <v>33180360</v>
-      </c>
-      <c r="L12" s="4" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>4144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>76.5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.04317308532006</v>
+      </c>
+      <c r="J13">
+        <v>7363681</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>4144</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>76.5</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1.04317308532006</v>
-      </c>
-      <c r="K13">
-        <v>7363681</v>
-      </c>
-      <c r="L13" s="4" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>4144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>132</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.1827689489578701</v>
+      </c>
+      <c r="J14">
+        <v>7167960</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>4144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>132</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1.1827689489578701</v>
-      </c>
-      <c r="K14">
-        <v>7167960</v>
-      </c>
-      <c r="L14" s="4" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>4144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>29.1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.1547003383276899</v>
+      </c>
+      <c r="J15">
+        <v>8133612</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>4144</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15">
-        <v>29.1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1.1547003383276899</v>
-      </c>
-      <c r="K15">
-        <v>8133612</v>
-      </c>
-      <c r="L15" s="4" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>4144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>90.4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.19001544132297</v>
+      </c>
+      <c r="J16">
+        <v>7562359</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>4144</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16">
-        <v>90.4</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1.19001544132297</v>
-      </c>
-      <c r="K16">
-        <v>7562359</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1287,34 +1281,34 @@
       <c r="D17">
         <v>4144</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17">
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
         <v>37.6</v>
       </c>
-      <c r="J17" s="3">
+      <c r="I17" s="3">
         <v>1.28811937240524</v>
       </c>
-      <c r="K17">
+      <c r="J17">
         <v>7929803</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1322,34 +1316,34 @@
       <c r="D18">
         <v>4144</v>
       </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18">
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
         <v>125</v>
       </c>
-      <c r="J18" s="3">
+      <c r="I18" s="3">
         <v>1.1650046325644901</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <v>6362673</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1357,34 +1351,34 @@
       <c r="D19">
         <v>4144</v>
       </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
         <v>69.5</v>
       </c>
-      <c r="J19" s="3">
+      <c r="I19" s="3">
         <v>1.39900158107396</v>
       </c>
-      <c r="K19">
+      <c r="J19">
         <v>6995825</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1392,34 +1386,34 @@
       <c r="D20">
         <v>4144</v>
       </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20">
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
         <v>81.400000000000006</v>
       </c>
-      <c r="J20" s="3">
+      <c r="I20" s="3">
         <v>5</v>
       </c>
-      <c r="K20">
+      <c r="J20">
         <v>46957365</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1427,34 +1421,34 @@
       <c r="D21">
         <v>4144</v>
       </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21">
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
         <v>106</v>
       </c>
-      <c r="J21" s="3">
+      <c r="I21" s="3">
         <v>1.0482077044577001</v>
       </c>
-      <c r="K21">
+      <c r="J21">
         <v>7695611</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1462,34 +1456,34 @@
       <c r="D22">
         <v>4144</v>
       </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22">
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22">
         <v>22.8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
         <v>1.30514886642994</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <v>7669183</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1497,34 +1491,34 @@
       <c r="D23">
         <v>4144</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23">
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
         <v>2.46</v>
       </c>
-      <c r="J23" s="3">
+      <c r="I23" s="3">
         <v>11.770315103466199</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <v>9219705</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1532,34 +1526,34 @@
       <c r="D24">
         <v>4144</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24">
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
         <v>48.9</v>
       </c>
-      <c r="J24" s="3">
+      <c r="I24" s="3">
         <v>1.1954938951160901</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <v>7057920</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1567,34 +1561,34 @@
       <c r="D25">
         <v>4144</v>
       </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25">
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
         <v>0.95899999999999996</v>
       </c>
-      <c r="J25" s="3">
+      <c r="I25" s="3">
         <v>8.8740621053413609</v>
       </c>
-      <c r="K25">
+      <c r="J25">
         <v>7028387</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1602,34 +1596,34 @@
       <c r="D26">
         <v>4144</v>
       </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26">
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
         <v>24.9</v>
       </c>
-      <c r="J26" s="3">
+      <c r="I26" s="3">
         <v>1.54893348029046</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <v>6908612</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1637,34 +1631,34 @@
       <c r="D27">
         <v>4144</v>
       </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27">
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
         <v>16.600000000000001</v>
       </c>
-      <c r="J27" s="3">
+      <c r="I27" s="3">
         <v>1.1739349417719001</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <v>6772391</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="K27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1672,34 +1666,34 @@
       <c r="D28">
         <v>4144</v>
       </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>22.5</v>
       </c>
       <c r="I28">
-        <v>22.5</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
         <v>1168788</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1707,35 +1701,35 @@
       <c r="D29">
         <v>4144</v>
       </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>16</v>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>18.8</v>
       </c>
       <c r="I29">
-        <v>18.8</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
         <v>8305631</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1743,36 +1737,36 @@
       <c r="D30">
         <v>4144</v>
       </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>10.5</v>
       </c>
       <c r="I30">
-        <v>10.5</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="J30">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="K30">
         <v>7343496</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1780,36 +1774,36 @@
       <c r="D31">
         <v>4144</v>
       </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>16</v>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>4.49</v>
       </c>
       <c r="I31">
-        <v>4.49</v>
+        <v>2.2271714922049002</v>
       </c>
       <c r="J31">
-        <v>2.2271714922049002</v>
-      </c>
-      <c r="K31">
         <v>8596343</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="4"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1817,36 +1811,36 @@
       <c r="D32">
         <v>4144</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>16</v>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>18.7</v>
       </c>
       <c r="I32">
-        <v>18.7</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
         <v>7395140</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N32" s="4"/>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1854,36 +1848,36 @@
       <c r="D33">
         <v>4144</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>1.56</v>
       </c>
       <c r="I33">
-        <v>1.56</v>
+        <v>6.4102564102564097</v>
       </c>
       <c r="J33">
-        <v>6.4102564102564097</v>
-      </c>
-      <c r="K33">
         <v>7384004</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1891,36 +1885,36 @@
       <c r="D34">
         <v>4144</v>
       </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>0.91</v>
       </c>
       <c r="I34">
-        <v>0.91</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>5</v>
-      </c>
-      <c r="K34">
         <v>5367610</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -1928,36 +1922,36 @@
       <c r="D35">
         <v>4144</v>
       </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>2.4900000000000002</v>
       </c>
       <c r="I35">
-        <v>2.4900000000000002</v>
+        <v>4.01606425702811</v>
       </c>
       <c r="J35">
-        <v>4.01606425702811</v>
-      </c>
-      <c r="K35">
         <v>7112721</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" s="4"/>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -1965,36 +1959,36 @@
       <c r="D36">
         <v>4144</v>
       </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>12.8</v>
       </c>
       <c r="I36">
-        <v>12.8</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
         <v>8763810</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="4"/>
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2002,219 +1996,219 @@
       <c r="D37">
         <v>4144</v>
       </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>4.47</v>
       </c>
       <c r="I37">
-        <v>4.47</v>
+        <v>2.2371364653243799</v>
       </c>
       <c r="J37">
-        <v>2.2371364653243799</v>
-      </c>
-      <c r="K37">
         <v>9142478</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="K37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>4144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>20.8</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>9989045</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>4144</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38">
-        <v>20.8</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>9989045</v>
-      </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>4144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>9.6</v>
+      </c>
+      <c r="I39">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="J39">
+        <v>7652496</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>4144</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39">
-        <v>9.6</v>
-      </c>
-      <c r="J39">
-        <v>1.0416666666666701</v>
-      </c>
-      <c r="K39">
-        <v>7652496</v>
-      </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>4144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>5989773</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>4144</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="J40">
-        <v>5</v>
-      </c>
-      <c r="K40">
-        <v>5989773</v>
-      </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>4144</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>1.51</v>
+      </c>
+      <c r="I41">
+        <v>6.6225165562913899</v>
+      </c>
+      <c r="J41">
+        <v>7263152</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>4144</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41">
-        <v>1.51</v>
-      </c>
-      <c r="J41">
-        <v>6.6225165562913899</v>
-      </c>
-      <c r="K41">
-        <v>7263152</v>
-      </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4144</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>3.37</v>
+      </c>
+      <c r="I42">
+        <v>2.9673590504451002</v>
+      </c>
+      <c r="J42">
+        <v>7358865</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>4144</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42">
-        <v>3.37</v>
-      </c>
-      <c r="J42">
-        <v>2.9673590504451002</v>
-      </c>
-      <c r="K42">
-        <v>7358865</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2222,35 +2216,35 @@
       <c r="D43">
         <v>4144</v>
       </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>1.92</v>
       </c>
       <c r="I43">
-        <v>1.92</v>
+        <v>5.2083333333333304</v>
       </c>
       <c r="J43">
-        <v>5.2083333333333304</v>
-      </c>
-      <c r="K43">
         <v>7216406</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -2258,35 +2252,35 @@
       <c r="D44">
         <v>4144</v>
       </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>11.5</v>
       </c>
       <c r="I44">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
         <v>7797092</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -2294,35 +2288,35 @@
       <c r="D45">
         <v>4144</v>
       </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>4.66</v>
       </c>
       <c r="I45">
-        <v>4.66</v>
+        <v>2.1459227467811202</v>
       </c>
       <c r="J45">
-        <v>2.1459227467811202</v>
-      </c>
-      <c r="K45">
         <v>7609591</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>19</v>
@@ -2330,35 +2324,35 @@
       <c r="D46">
         <v>4144</v>
       </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>22.5</v>
       </c>
       <c r="I46">
-        <v>22.5</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
         <v>6952677</v>
       </c>
-      <c r="L46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2366,35 +2360,35 @@
       <c r="D47">
         <v>4144</v>
       </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>21.8</v>
       </c>
       <c r="I47">
-        <v>21.8</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
         <v>6184498</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -2402,35 +2396,35 @@
       <c r="D48">
         <v>4144</v>
       </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>0.44</v>
       </c>
       <c r="I48">
-        <v>0.44</v>
+        <v>5</v>
       </c>
       <c r="J48">
-        <v>5</v>
-      </c>
-      <c r="K48">
         <v>5170599</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>22</v>
@@ -2438,35 +2432,35 @@
       <c r="D49">
         <v>4144</v>
       </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>0.39600000000000002</v>
       </c>
       <c r="I49">
-        <v>0.39600000000000002</v>
+        <v>5</v>
       </c>
       <c r="J49">
-        <v>5</v>
-      </c>
-      <c r="K49">
         <v>4728864</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>23</v>
@@ -2474,35 +2468,35 @@
       <c r="D50">
         <v>4144</v>
       </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>0.105</v>
       </c>
       <c r="I50">
-        <v>0.105</v>
+        <v>5</v>
       </c>
       <c r="J50">
-        <v>5</v>
-      </c>
-      <c r="K50">
         <v>5547220</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -2510,35 +2504,35 @@
       <c r="D51">
         <v>4144</v>
       </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>0.61299999999999999</v>
       </c>
       <c r="I51">
-        <v>0.61299999999999999</v>
+        <v>5</v>
       </c>
       <c r="J51">
-        <v>5</v>
-      </c>
-      <c r="K51">
         <v>5052913</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2546,35 +2540,35 @@
       <c r="D52">
         <v>4144</v>
       </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" t="s">
-        <v>16</v>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>6.52</v>
       </c>
       <c r="I52">
-        <v>6.52</v>
+        <v>1.53374233128834</v>
       </c>
       <c r="J52">
-        <v>1.53374233128834</v>
-      </c>
-      <c r="K52">
         <v>6800026</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -2582,32 +2576,32 @@
       <c r="D53">
         <v>4144</v>
       </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>7.66</v>
       </c>
       <c r="I53">
-        <v>7.66</v>
+        <v>1.3</v>
       </c>
       <c r="J53">
-        <v>1.3</v>
-      </c>
-      <c r="K53">
         <v>7619975</v>
       </c>
-      <c r="L53" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M53" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G53" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"MidOutput,HighOutput"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/fastqFiles/fastq_fullrun_hbrown_01.13.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.13.20.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904CFE1-8FC4-3C48-8E1F-1A43FE2E682D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655629BD-2167-DD4D-87CE-4B27C09EFFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32440" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32440" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="69">
   <si>
     <t>libraryDate</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Brent_large/Brent_5b-26_GTAC_26_SIC_Index2_07_TCAACTG_GAGTTGGT_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small/Brent_5a-7_GTAC_7_SIC_Index2_08_AGACTGA_AAGCACGT_S8_R1_001.fastq.gz:5700146</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,7 +960,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
@@ -969,7 +972,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
@@ -978,14 +981,14 @@
       <c r="H8">
         <v>0.25600000000000001</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>6.5612298143469197</v>
       </c>
       <c r="J8">
         <v>5700146</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>22</v>
+      <c r="K8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">

--- a/fastqFiles/fastq_fullrun_hbrown_01.13.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.13.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904CFE1-8FC4-3C48-8E1F-1A43FE2E682D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160098B-DECF-1647-B297-AEA1EC31974F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32440" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32440" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="69">
   <si>
     <t>libraryDate</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Brent_large/Brent_5b-26_GTAC_26_SIC_Index2_07_TCAACTG_GAGTTGGT_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small/Brent_5a-7_GTAC_7_SIC_Index2_08_AGACTGA_AAGCACGT_S8_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -259,6 +262,12 @@
       <name val="Menlo"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,12 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +682,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,8 +994,8 @@
       <c r="J8">
         <v>5700146</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>22</v>
+      <c r="K8" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
